--- a/output/date/2021-12-19/2021-12-19_리모컨.xlsx
+++ b/output/date/2021-12-19/2021-12-19_리모컨.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11040</t>
+          <t>10300</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -970,7 +970,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26920</t>
+          <t>26900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1021,43 +1021,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>더함 3 in 1 통합 리모컨</t>
+          <t>[정품]TM1640A 삼성TV리모컨/BN59-01259A/LED TV/리모콘</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29441665618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80000304655</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2944166/29441665618.20211029095616.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8000030/80000304655.5.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>지알아이모바일</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>더함</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1087,43 +1087,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[정품]TM1640A 삼성TV리모컨/BN59-01259A/LED TV/리모콘</t>
+          <t>현승아이앤씨 MC-450</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80000304655</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149765020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8000030/80000304655.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814976/18149765020.20191231163213.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>5180</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>지알아이모바일</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>현승아이앤씨</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1153,22 +1149,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>현승아이앤씨 MC-450</t>
+          <t>더함 3 in 1 통합 리모컨</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149765020</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29441665618</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814976/18149765020.20191231163213.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2944166/29441665618.20211029095616.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>15000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1182,10 +1178,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>더함</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>현승아이앤씨</t>
+          <t>더함</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1587,37 +1587,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Btv전용 리모컨</t>
+          <t>[LG정품] 매직리모컨 인공지능 음성인식 20년식 MR20GA AKB75855501</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21916820733</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83411946611</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191682/21916820733.20200207131151.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8341194/83411946611.2.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>테크빌리지</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1645,45 +1653,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[LG정품] 매직리모컨 인공지능 음성인식 20년식 MR20GA AKB75855501</t>
+          <t>Btv전용 리모컨</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83411946611</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21916820733</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8341194/83411946611.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191682/21916820733.20200207131151.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34900</t>
+          <t>7320</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>테크빌리지</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1777,22 +1777,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>오성통상 IR-1100 하나로 리모컨</t>
+          <t>와사비망고 딴트공 매직 리모컨</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=4045552387</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15728508783</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_4045552/4045552387.20120211211658.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1572850/15728508783.20181018104115.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2900</t>
+          <t>7590</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1806,10 +1806,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>와사비망고</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>오성통상</t>
+          <t>와사비망고</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1839,22 +1843,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>와사비망고 딴트공 매직 리모컨</t>
+          <t>오성통상 IR-1100 하나로 리모컨</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15728508783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=4045552387</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1572850/15728508783.20181018104115.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_4045552/4045552387.20120211211658.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7590</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1868,14 +1872,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>와사비망고</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>와사비망고</t>
+          <t>오성통상</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2149,22 +2149,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LG전자 OD-201</t>
+          <t>LG전자 LG정품 TV 리모컨 (233)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21916736608</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149673375</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191673/21916736608.20201007142634.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814967/18149673375.20191231184348.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4500</t>
+          <t>5570</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2215,22 +2215,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LG전자 LG정품 TV 리모컨 (233)</t>
+          <t>LG전자 OD-201</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149673375</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21916736608</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814967/18149673375.20191231184348.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191673/21916736608.20201007142634.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5580</t>
+          <t>4500</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2343,37 +2343,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SK브로드밴드 셋톱박스 리모컨</t>
+          <t>엘지 TV전용 정품 리모컨 LG 리모콘 (일본어마킹)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149786443</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81602179689</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814978/18149786443.20200101135029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8160217/81602179689.6.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>노트옵션</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2401,28 +2409,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>엘지 TV전용 정품 리모컨 LG 리모콘 (일본어마킹)</t>
+          <t>TI320-DU iptv 셋톱박스 lg u+ TV 유플러스리모콘</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81602179689</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80155876989</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8160217/81602179689.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8015587/80155876989.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>노트옵션</t>
+          <t>콘샵</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2430,16 +2438,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2467,22 +2467,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>낫투 COMBO-3020</t>
+          <t>SK브로드밴드 셋톱박스 리모컨</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21916820726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149786443</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191682/21916820726.20200207131146.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814978/18149786443.20200101135029.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6270</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2496,16 +2496,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>낫투</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>낫투</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2533,37 +2525,45 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TI320-DU iptv 셋톱박스 lg u+ TV 유플러스리모콘</t>
+          <t>낫투 COMBO-3020</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80155876989</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21916820726</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8015587/80155876989.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191682/21916820726.20200207131146.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>6270</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>콘샵</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>낫투</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>낫투</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2905,41 +2905,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한국전자 무설정 리모컨 (HK753)</t>
+          <t>정품 씨제이 리모컨HD 셋톱박스 CJ리모콘 헬로TV리모콘</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149785981</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80983028015</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814978/18149785981.20191231174803.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8098302/80983028015.1.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>콘샵</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>한국전자</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2967,37 +2963,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>정품 씨제이 리모컨HD 셋톱박스 CJ리모콘 헬로TV리모콘</t>
+          <t>한국전자 무설정 리모컨 (HK753)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80983028015</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149785981</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8098302/80983028015.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814978/18149785981.20191231174803.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>콘샵</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>한국전자</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3083,45 +3083,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LG 정품 올레드 매직 리모컨 모음</t>
+          <t>올레TV 스카이라이프 리모컨</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81480002872</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149625909</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8148000/81480002872.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814962/18149625909.20191231203907.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>43000</t>
+          <t>6970</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>LG electrics</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3149,37 +3141,45 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>올레TV 스카이라이프 리모컨</t>
+          <t>이노스 매직 리모컨 TV 와 셋톱박스를 하나로 넷플릭스 / 유튜브 핫키 탑재</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149625909</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82441416370</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814962/18149625909.20191231203907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8244141/82441416370.2.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6980</t>
+          <t>12500</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>이노스TV</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>이노스</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>이노스</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3207,28 +3207,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>이노스 매직 리모컨 TV 와 셋톱박스를 하나로 넷플릭스 / 유튜브 핫키 탑재</t>
+          <t>LG 정품 올레드 매직 리모컨 모음</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82441416370</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81480002872</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8244141/82441416370.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8148000/81480002872.3.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12500</t>
+          <t>43000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>이노스TV</t>
+          <t>LG electrics</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3238,12 +3238,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>이노스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>이노스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3335,45 +3335,41 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 매직 리모컨 (AKB75375503)</t>
+          <t>실리콘 리모콘 커버 야광 리모컨커버 케이스 보호필름</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19094446802</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81003236429</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1909444/19094446802.20201007102049.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8100323/81003236429.3.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>63630</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>101도</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>LG전자</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+          <t>101도</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3401,22 +3397,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>크라이저 Airoid2 - QWERTY</t>
+          <t>LG전자 매직 리모컨 (AKB75375503)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12852214481</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19094446802</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1285221/12852214481.20210329161154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1909444/19094446802.20201007102049.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>63630</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3432,12 +3428,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>크라이저</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>크라이저</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3467,41 +3463,45 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>실리콘 리모콘 커버 야광 리모컨커버 케이스 보호필름</t>
+          <t>삼성전자 삼성 TV용 리모컨(BN59-01175A)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81003236429</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149738651</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8100323/81003236429.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814973/18149738651.20191231170526.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>11160</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>101도</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>101도</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3529,43 +3529,39 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 리모컨(BN59-01175A)</t>
+          <t>대우루컴즈 TV리모컨 LUCOMS TV리모컨+건전지무료</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149738651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80291547447</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814973/18149738651.20191231170526.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8029154/80291547447.1.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11160</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스토팜</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>엔오토</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3595,28 +3591,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>대우루컴즈 TV리모컨 LUCOMS TV리모컨+건전지무료</t>
+          <t>스마트리모컨 무선 만능리모컨 원격제어 리모컨 허브 tv 에어컨 통합 헤이홈 iot</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80291547447</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82504816631</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8029154/80291547447.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8250481/82504816631.16.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>스토팜</t>
+          <t>에디트홈</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3624,10 +3620,14 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>헤이홈</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>엔오토</t>
+          <t>고퀄</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3657,43 +3657,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>스마트리모컨 무선 만능리모컨 원격제어 리모컨 허브 tv 에어컨 통합 헤이홈 iot</t>
+          <t>크라이저 Airoid2 - QWERTY</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82504816631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12852214481</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8250481/82504816631.16.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1285221/12852214481.20210329161154.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>에디트홈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>헤이홈</t>
+          <t>크라이저</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>고퀄</t>
+          <t>크라이저</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3723,33 +3723,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KT리모콘 셋톱박스 / 스카이라이프 리모콘  중고</t>
+          <t>링콜 SLIM-250</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25684786450</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21916820736</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2568478/25684786450.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191682/21916820736.20200207131157.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>8420</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>G마켓</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3781,33 +3781,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>링콜 SLIM-250</t>
+          <t>부착형 리모컨거치대 리모컨정리함 멀티수납</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21916820736</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82523144406</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191682/21916820736.20200207131157.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8252314/82523144406.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>8420</t>
+          <t>740</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>에이케이마켓</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3839,28 +3839,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>부착형 리모컨거치대 리모컨정리함 멀티수납</t>
+          <t>디엘티 모넥스 중소기업TV 리모컨</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82523144406</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82333763255</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8252314/82523144406.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8233376/82333763255.5.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>에이케이마켓</t>
+          <t>DLT</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3868,8 +3868,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>모넥스</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>디엘티</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3897,28 +3905,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>디엘티 모넥스 중소기업TV 리모컨</t>
+          <t>학습형 만능 리모컨/ TV/ 셋탑박스/ 냉난방기 호환</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82333763255</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23088232468</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8233376/82333763255.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2308823/23088232468.3.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>10880</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>DLT</t>
+          <t>옥션</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3926,16 +3934,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>모넥스</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>디엘티</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3963,28 +3963,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>학습형 만능 리모컨/ TV/ 셋탑박스/ 냉난방기 호환</t>
+          <t>무설정 엘지TV 만능 리모컨 삼성 티비 리모콘</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23088232468</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7796234296</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2308823/23088232468.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7796234/7796234296.6.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10880</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>옥션</t>
+          <t>에스몰유통</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4021,28 +4021,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>무설정 엘지TV 만능 리모컨 삼성 티비 리모콘</t>
+          <t>텐플 무선 만능리모컨 원격제어 리모컨 허브 스마트리모컨 tv 에어컨 iot 구글홈</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7796234296</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83039448045</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7796234/7796234296.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8303944/83039448045.7.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5800</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>에스몰유통</t>
+          <t>애니온넷</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4050,7 +4050,11 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>텐플</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -4079,41 +4083,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>텐플 무선 만능리모컨 원격제어 리모컨 허브 스마트리모컨 tv 에어컨 iot 구글홈</t>
+          <t>삼성전자 삼성 TM1240A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83039448045</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149668924</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8303944/83039448045.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814966/18149668924.20191231183338.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>10950</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>애니온넷</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>텐플</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -4141,33 +4149,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KT리모컨 기가지니리모컨 GIGAGenie리모컨 중고제품</t>
+          <t>NEC 프로젝터 리모컨</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21774870838</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18344345087</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177487/21774870838.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1834434/18344345087.20200101141717.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8910</t>
+          <t>19520</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>옥션</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4199,43 +4207,39 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TM1240A</t>
+          <t>스마트라TV리모컨 SMATRA TV리모컨+건전지무료</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149668924</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80291547481</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814966/18149668924.20191231183338.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8029154/80291547481.1.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10950</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>스토팜</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>엔오토</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4265,37 +4269,45 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NEC 프로젝터 리모컨</t>
+          <t>TV리모컨 삼성 엘지 만능리모컨 통합리모콘 KT 쿡 U플러스 SK BTV 셋톱박스</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18344345087</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83116478919</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1834434/18344345087.20200101141717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8311647/83116478919.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>19520</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>낫투</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>낫투</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -4323,41 +4335,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>오성통상 IR-6000</t>
+          <t>KT리모컨 기가지니리모컨 GIGAGenie리모컨 중고제품</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18150262661</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21774870838</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1815026/18150262661.20191231161741.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177487/21774870838.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>8910</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>옥션</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>오성통상</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -4385,39 +4393,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>스마트라TV리모컨 SMATRA TV리모컨+건전지무료</t>
+          <t>오성통상 IR-6000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80291547481</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18150262661</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8029154/80291547481.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1815026/18150262661.20191231161741.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>스토팜</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>엔오토</t>
+          <t>오성통상</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4447,28 +4455,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TV리모컨 삼성 엘지 만능리모컨 통합리모콘 KT 쿡 U플러스 SK BTV 셋톱박스</t>
+          <t>AA59-00598A BN59-01189C 삼성 정품 LCD 3D LED PDP 스마트 TV 리모컨 리모콘</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83116478919</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80144230158</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8311647/83116478919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8014423/80144230158.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>콘샵</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4478,12 +4486,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>낫투</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>낫투</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4513,28 +4521,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AA59-00598A BN59-01189C 삼성 정품 LCD 3D LED PDP 스마트 TV 리모컨 리모콘</t>
+          <t>스카이라이프 정품 리모콘 - 벡셀 건전지 무료</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80144230158</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8200178656</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8014423/80144230158.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8200178/8200178656.2.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>콘샵</t>
+          <t>11번가</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4542,16 +4550,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -4645,33 +4645,33 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>스카이라이프 정품 리모콘 - 벡셀 건전지 무료</t>
+          <t>KT 쿡 올레 TV용 리모컨</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8200178656</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149751297</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8200178/8200178656.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814975/18149751297.20200123112236.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11번가</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -4703,33 +4703,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KT 쿡 올레 TV용 리모컨</t>
+          <t>KT리모콘 셋톱박스 / 스카이라이프 리모콘  중고</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149751297</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25684786450</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814975/18149751297.20200123112236.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2568478/25684786450.1.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>G마켓</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4943,22 +4943,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COMBO-7007</t>
+          <t>옵토마 리모컨</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149627201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=4084097743</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814962/18149627201.20200101141647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_4084097/4084097743.20191231161119.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>29370</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4972,8 +4972,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>옵토마</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>옵토마</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5001,22 +5009,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>옵토마 리모컨</t>
+          <t>COMBO-7007</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=4084097743</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149627201</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_4084097/4084097743.20191231161119.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814962/18149627201.20200101141647.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>29370</t>
+          <t>2850</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5030,16 +5038,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>옵토마</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>옵토마</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5249,37 +5249,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LG 삼성 TV 리모컨 리모콘(건전지무료)</t>
+          <t>삼성전자 삼성 TV용 리모컨(AA83-00654A)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18341496491</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9530774253</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1834149/18341496491.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9530774/9530774253.20211125170919.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>19990</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>11번가</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5307,45 +5315,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 리모컨(AA83-00654A)</t>
+          <t>스카이 라이프 정품 리모콘                 -  오리지날 정품 쌍방향 리모콘-</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9530774253</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5807981565</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9530774/9530774253.20211125170919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5807981/5807981565.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>19990</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>옥션</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5373,28 +5373,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>스카이 라이프 정품 리모콘                 -  오리지날 정품 쌍방향 리모콘-</t>
+          <t>LG 삼성 TV 리모컨 리모콘(건전지무료)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5807981565</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18341496491</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5807981/5807981565.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1834149/18341496491.1.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>옥션</t>
+          <t>11번가</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6970</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5489,28 +5489,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>링콜 통합 만능리모컨  링콜SLIM-250</t>
+          <t>[무배]  IP TV 리모컨 보호 항균 케이스 / LG U+ SK 브로드밴드 SJD233</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22853055134</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29989202639</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2285305/22853055134.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2998920/29989202639.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>8900</t>
+          <t>37900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>쿠팡</t>
+          <t>배스트</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5613,28 +5613,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[무배]  IP TV 리모컨 보호 항균 케이스 / LG U+ SK 브로드밴드 SJD233</t>
+          <t>링콜 통합 만능리모컨  링콜SLIM-250</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29989202639</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22853055134</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2998920/29989202639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2285305/22853055134.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>37900</t>
+          <t>8900</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>배스트</t>
+          <t>쿠팡</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5671,28 +5671,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KT GIGA Genie 리모컨 기가지니 리모콘 중고제품</t>
+          <t>(정품)TM1680A 삼성TV스마트리모컨/BN59-01243A</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29371578515</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29819173217</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2937157/29371578515.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2981917/29819173217.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>8720</t>
+          <t>28710</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>G마켓</t>
+          <t>인터파크</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5700,8 +5700,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5729,33 +5737,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>(정품)TM1680A 삼성TV스마트리모컨/BN59-01243A</t>
+          <t>삼성전자 삼성 TV용 리모컨(00008E)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29819173217</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5466716463</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2981917/29819173217.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5466716/5466716463.20120211193429.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>28710</t>
+          <t>7990</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>인터파크</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5795,45 +5803,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 리모컨(00008E)</t>
+          <t>통합 만능 무설정 삼성 LG 엘지 티비 TV KT 올레TV 스카이라이프 셋톱박스 리모컨</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5466716463</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82588544082</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5466716/5466716463.20120211193429.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8258854/82588544082.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>7990</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>글로비스에스</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5919,37 +5919,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>통합 만능 무설정 삼성 LG 엘지 티비 TV KT 올레TV 스카이라이프 셋톱박스 리모컨</t>
+          <t>낫투 COMBO-2121</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82588544082</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149669045</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8258854/82588544082.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814966/18149669045.20191231163212.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>7790</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>글로비스에스</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>낫투</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>낫투</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5977,22 +5985,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>낫투 COMBO-2121</t>
+          <t>기가지니 셋톱박스 리모컨</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149669045</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22073502618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814966/18149669045.20191231163212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2207350/22073502618.20200709142202.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>7790</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6006,16 +6014,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>낫투</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>낫투</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6043,28 +6043,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TV 리모컨 보호 케이스 LG AN-MR600 MR650 MR18BA MR19BA MR20GA 매직 원격 실리콘 커버</t>
+          <t>KT GIGA Genie 리모컨 기가지니 리모콘 중고제품</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28184872074</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29371578515</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2818487/28184872074.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2937157/29371578515.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>aliexpress</t>
+          <t>G마켓</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6101,22 +6101,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>기가지니 셋톱박스 리모컨</t>
+          <t>삼성전자 삼성 TV용 리모컨(BN59-01302A)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22073502618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22214576723</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2207350/22073502618.20200709142202.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2221457/22214576723.20200317124146.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>10980</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6130,8 +6130,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6159,45 +6167,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 리모컨(BN59-01302A)</t>
+          <t>TV 리모컨 보호 케이스 LG AN-MR600 MR650 MR18BA MR19BA MR20GA 매직 원격 실리콘 커버</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22214576723</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28184872074</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2221457/22214576723.20200317124146.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2818487/28184872074.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10980</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>aliexpress</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6225,37 +6225,45 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>대우루컴즈 TV리모컨 / LUCOMS TV리모컨</t>
+          <t>티제이미디어 TIR-304K</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23755878718</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18485171396</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2375587/23755878718.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1848517/18485171396.20190403144649.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10800</t>
+          <t>21020</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>옥션</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>티제이미디어</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>티제이미디어</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6283,28 +6291,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>삼성 TV모니터 리모컨(전기종 호환)</t>
+          <t>반값행사 LG전자 정품 매직리모컨 인공지능 음성인식 20년식 MR20GA 메직리모컨</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11937804188</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83529747996</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1193780/11937804188.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8352974/83529747996.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>지에치스토어</t>
+          <t>메가mall</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6314,12 +6322,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>낫투</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>낫투</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6349,22 +6357,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>티제이미디어 TIR-304K</t>
+          <t>삼성전자 삼성 TV용 리모컨(AA59-00577A)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18485171396</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18149754238</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1848517/18485171396.20190403144649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1814975/18149754238.20200101133948.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>21030</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6380,12 +6388,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>티제이미디어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>티제이미디어</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6415,43 +6423,43 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 TV용 리모컨(AA59-00577A)</t>
+          <t>삼성 TV모니터 리모컨(전기종 호환)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18149754238</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11937804188</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1814975/18149754238.20200101133948.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1193780/11937804188.1.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>지에치스토어</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>낫투</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>낫투</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6481,28 +6489,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>반값행사 LG전자 정품 매직리모컨 인공지능 음성인식 20년식 MR20GA 메직리모컨</t>
+          <t>LG전자 TV 정품 리모컨(AKB74915348)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83529747996</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82838692492</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8352974/83529747996.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8283869/82838692492.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>메가mall</t>
+          <t>굿티브이</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -6515,11 +6523,7 @@
           <t>LG전자</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6547,28 +6551,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LG전자 TV 정품 리모컨(AKB74915348)</t>
+          <t>리모컨거치대 벽걸이 아크릴케이스 리모컨찾기 선반</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82838692492</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82748127811</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8283869/82838692492.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274812/82748127811.5.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>굿티브이</t>
+          <t>톡마켓</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6576,11 +6580,7 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -6609,28 +6609,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>리모컨거치대 벽걸이 아크릴케이스 리모컨찾기 선반</t>
+          <t>대우루컴즈 TV리모컨 / LUCOMS TV리모컨</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82748127811</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23755878718</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274812/82748127811.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2375587/23755878718.1.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>10800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>톡마켓</t>
+          <t>옥션</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
